--- a/excel/assignments/invoice_datavalidation_practice.xlsx
+++ b/excel/assignments/invoice_datavalidation_practice.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>MEA7879</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Schneebesen</t>
+  </si>
+  <si>
+    <t>Standrd</t>
   </si>
 </sst>
 </file>
@@ -164,8 +167,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -305,33 +308,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -638,13 +641,13 @@
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -656,14 +659,14 @@
         <f>VLOOKUP(A2,Produkte!$A$2:$C$100,2,FALSE)</f>
         <v>Dosenöffner</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="15">
         <f>VLOOKUP(A2,Produkte!$A$2:$C$100,3,FALSE)</f>
         <v>6.49</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <f>C2*D2</f>
         <v>6.49</v>
       </c>
@@ -676,53 +679,53 @@
         <f>VLOOKUP(A3,Produkte!$A$2:$C$100,2,FALSE)</f>
         <v>Löffel</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <f>VLOOKUP(A3,Produkte!$A$2:$C$100,3,FALSE)</f>
         <v>4.5</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <f t="shared" ref="E3" si="0">C3*D3</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="17">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="15">
         <f>SUM(E2:E3)*Steuern!B1</f>
         <v>0.82425000000000004</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="17">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="15">
         <f>SUM(E2:E4)</f>
         <v>11.814249999999999</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -733,35 +736,35 @@
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17" t="e">
         <f>VLOOKUP(E6,Versand!A2:B10,2,FALSE)</f>
-        <v>5.99</v>
+        <v>#N/A</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="15">
         <f>IF(E5&gt;=100,0-5.99,0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="19">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="17" t="e">
         <f>E5+E7+E8</f>
-        <v>17.80425</v>
+        <v>#N/A</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -776,18 +779,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Achtung" promptTitle="Achtung" prompt="ungültiger Eingabewert">
-          <x14:formula1>
-            <xm:f>Versand!$A$2:$A$15</xm:f>
-          </x14:formula1>
-          <xm:sqref>E6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -825,7 +816,7 @@
       <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>4.99</v>
       </c>
     </row>
@@ -836,7 +827,7 @@
       <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>7.25</v>
       </c>
     </row>
@@ -847,7 +838,7 @@
       <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>4.5</v>
       </c>
     </row>
@@ -858,7 +849,7 @@
       <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>89.79</v>
       </c>
     </row>
@@ -869,7 +860,7 @@
       <c r="B6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>3.99</v>
       </c>
     </row>
@@ -880,7 +871,7 @@
       <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>6.49</v>
       </c>
     </row>
@@ -891,7 +882,7 @@
       <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>7.87</v>
       </c>
     </row>
@@ -902,7 +893,7 @@
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>14.09</v>
       </c>
     </row>
@@ -913,7 +904,7 @@
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>8.89</v>
       </c>
     </row>
@@ -924,7 +915,7 @@
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>2.89</v>
       </c>
     </row>
@@ -935,7 +926,7 @@
       <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>55.59</v>
       </c>
     </row>
@@ -946,7 +937,7 @@
       <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>11.89</v>
       </c>
     </row>
@@ -957,7 +948,7 @@
       <c r="B14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="20">
         <v>7.25</v>
       </c>
     </row>
@@ -968,7 +959,7 @@
       <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="20">
         <v>13.78</v>
       </c>
     </row>
@@ -979,7 +970,7 @@
       <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="20">
         <v>17.95</v>
       </c>
     </row>
@@ -1016,7 +1007,7 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>5.99</v>
       </c>
     </row>
@@ -1024,7 +1015,7 @@
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>9.99</v>
       </c>
     </row>
@@ -1032,7 +1023,7 @@
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>13.99</v>
       </c>
     </row>
